--- a/jQuery.xlsx
+++ b/jQuery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyicwux\Documents\github\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3138EA33-7FE3-4B5A-866D-CA0D147ACB36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B71F95E-654E-4D93-88C8-4677B2811568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16046" yWindow="484" windowWidth="14582" windowHeight="12198" xr2:uid="{4928DE59-81BE-468E-8480-52DCD3E2DA13}"/>
+    <workbookView xWindow="-20450" yWindow="399" windowWidth="16892" windowHeight="12198" xr2:uid="{4928DE59-81BE-468E-8480-52DCD3E2DA13}"/>
   </bookViews>
   <sheets>
     <sheet name="jquery" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t>jQuery</t>
   </si>
@@ -395,9 +395,6 @@
   </si>
   <si>
     <t>first child</t>
-  </si>
-  <si>
-    <t>el..children(":first")</t>
   </si>
   <si>
     <t>newEl.insertBefore(el)
@@ -460,6 +457,17 @@
   </si>
   <si>
     <t>el.append("&lt;li&gt;"+ x + "&lt;/li&gt;")</t>
+  </si>
+  <si>
+    <t>el.children(":first")</t>
+  </si>
+  <si>
+    <t>last child</t>
+  </si>
+  <si>
+    <t>$('#example li:last')
+el.children().last()
+$('#example li:last-child')</t>
   </si>
 </sst>
 </file>
@@ -814,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345EC645-EAFB-4B95-B61D-DA4BA3610D6D}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -1097,7 +1105,7 @@
         <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
@@ -1108,10 +1116,10 @@
         <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1163,7 +1171,7 @@
         <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
@@ -1234,18 +1242,18 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" t="s">
         <v>125</v>
-      </c>
-      <c r="C40" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1253,62 +1261,70 @@
         <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="43.6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" t="s">
-        <v>89</v>
+        <v>135</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>72</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>73</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="29.05" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:4" ht="29.05" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>111</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="43.6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="s">
         <v>130</v>
-      </c>
-      <c r="D45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="43.6" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1338,7 @@
   <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -1335,7 +1351,7 @@
         <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
         <v>99</v>
@@ -1343,12 +1359,12 @@
     </row>
     <row r="2" spans="2:4" ht="101.65" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="116.2" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/jQuery.xlsx
+++ b/jQuery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyicwux\Documents\github\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B71F95E-654E-4D93-88C8-4677B2811568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF323FA-1C2D-4344-8374-8BA9E4C80250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20450" yWindow="399" windowWidth="16892" windowHeight="12198" xr2:uid="{4928DE59-81BE-468E-8480-52DCD3E2DA13}"/>
+    <workbookView xWindow="-23343" yWindow="-12" windowWidth="23452" windowHeight="12682" xr2:uid="{4928DE59-81BE-468E-8480-52DCD3E2DA13}"/>
   </bookViews>
   <sheets>
     <sheet name="jquery" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>jQuery</t>
   </si>
@@ -468,6 +468,9 @@
     <t>$('#example li:last')
 el.children().last()
 $('#example li:last-child')</t>
+  </si>
+  <si>
+    <t>document.body.addEventListener("DOMSubtreeModified",function(){</t>
   </si>
 </sst>
 </file>
@@ -822,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345EC645-EAFB-4B95-B61D-DA4BA3610D6D}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -1111,219 +1114,224 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="58.1" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="58.1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>84</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>85</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="29.05" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="32" spans="1:4" ht="29.05" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>92</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>93</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>109</v>
+      </c>
+      <c r="D39" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>119</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="43.6" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="43" spans="1:4" ht="43.6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>72</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>73</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="29.05" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:4" ht="29.05" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>111</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="43.6" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+    <row r="48" spans="1:4" ht="29.05" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>116</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>130</v>
       </c>
     </row>
